--- a/SensitivityAnalysisSpreadSheets/Holdback Bar Time/HoldbackBarTime10 Aircraft 9_1_-10%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/Holdback Bar Time/HoldbackBarTime10 Aircraft 9_1_-10%.xlsx
@@ -74935,6 +74935,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>12.42483333333333</v>
+      </c>
       <c r="C2" t="n">
         <v>413.77</v>
       </c>
@@ -74990,6 +74993,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>14.24783333333333</v>
+      </c>
       <c r="C3" t="n">
         <v>458.5827777777778</v>
       </c>
@@ -75045,6 +75051,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>14.167</v>
+      </c>
       <c r="C4" t="n">
         <v>462.0266666666666</v>
       </c>
@@ -75100,6 +75109,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>13.65466666666667</v>
+      </c>
       <c r="C5" t="n">
         <v>437.3594444444444</v>
       </c>
@@ -75155,6 +75167,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>14.55383333333333</v>
+      </c>
       <c r="C6" t="n">
         <v>445.8522222222223</v>
       </c>
@@ -75210,6 +75225,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>13.81433333333333</v>
+      </c>
       <c r="C7" t="n">
         <v>443.39</v>
       </c>
@@ -75265,6 +75283,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>15.01166666666667</v>
+      </c>
       <c r="C8" t="n">
         <v>425.8805555555556</v>
       </c>
@@ -75320,6 +75341,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>12.82616666666667</v>
+      </c>
       <c r="C9" t="n">
         <v>426.1272222222223</v>
       </c>
@@ -75375,6 +75399,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>12.88783333333333</v>
+      </c>
       <c r="C10" t="n">
         <v>408.3105555555556</v>
       </c>
@@ -75430,6 +75457,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>13.97316666666667</v>
+      </c>
       <c r="C11" t="n">
         <v>434.785</v>
       </c>
@@ -75485,6 +75515,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>11.88966666666667</v>
+      </c>
       <c r="C12" t="n">
         <v>429.8005555555556</v>
       </c>
@@ -75540,6 +75573,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>13.53116666666667</v>
+      </c>
       <c r="C13" t="n">
         <v>454.5038888888889</v>
       </c>
@@ -75595,6 +75631,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>13.29383333333333</v>
+      </c>
       <c r="C14" t="n">
         <v>439.3611111111111</v>
       </c>
@@ -75650,6 +75689,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>13.83583333333333</v>
+      </c>
       <c r="C15" t="n">
         <v>431.0016666666667</v>
       </c>
@@ -75705,6 +75747,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>13.686</v>
+      </c>
       <c r="C16" t="n">
         <v>454.8994444444445</v>
       </c>
@@ -75760,6 +75805,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>12.35483333333333</v>
+      </c>
       <c r="C17" t="n">
         <v>440.9844444444445</v>
       </c>
@@ -75815,6 +75863,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>12.2885</v>
+      </c>
       <c r="C18" t="n">
         <v>420.0172222222222</v>
       </c>
@@ -75870,6 +75921,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>12.15566666666667</v>
+      </c>
       <c r="C19" t="n">
         <v>452.0583333333334</v>
       </c>
@@ -75925,6 +75979,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>13.461</v>
+      </c>
       <c r="C20" t="n">
         <v>455.4233333333333</v>
       </c>
@@ -75980,6 +76037,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>14.413</v>
+      </c>
       <c r="C21" t="n">
         <v>436.655</v>
       </c>
@@ -76035,6 +76095,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>12.224</v>
+      </c>
       <c r="C22" t="n">
         <v>419.3027777777778</v>
       </c>
@@ -76090,6 +76153,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>12.902</v>
+      </c>
       <c r="C23" t="n">
         <v>449.8</v>
       </c>
@@ -76145,6 +76211,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>13.309</v>
+      </c>
       <c r="C24" t="n">
         <v>449.55</v>
       </c>
@@ -76200,6 +76269,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>12.33166666666667</v>
+      </c>
       <c r="C25" t="n">
         <v>420.9716666666667</v>
       </c>
@@ -76255,6 +76327,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>11.78866666666667</v>
+      </c>
       <c r="C26" t="n">
         <v>414.5238888888889</v>
       </c>
@@ -76310,6 +76385,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>12.7475</v>
+      </c>
       <c r="C27" t="n">
         <v>442.8455555555555</v>
       </c>
@@ -76365,6 +76443,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>13.9225</v>
+      </c>
       <c r="C28" t="n">
         <v>450.1183333333333</v>
       </c>
@@ -76420,6 +76501,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>13.716</v>
+      </c>
       <c r="C29" t="n">
         <v>479.8844444444445</v>
       </c>
@@ -76475,6 +76559,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>13.00366666666667</v>
+      </c>
       <c r="C30" t="n">
         <v>463.7950000000001</v>
       </c>
@@ -76529,6 +76616,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>13.4915</v>
       </c>
       <c r="C31" t="n">
         <v>427.6755555555555</v>
